--- a/cli/LP Github repos.xlsx
+++ b/cli/LP Github repos.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Renovate</t>
+          <t>Renovate and Dependabot</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,6 +567,552 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adapt-ami</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adapt-builder</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adapt-builder-importer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adapt-contrib-aboutUs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adapt-contrib-articleBlockSlider</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adapt-contrib-assessmentSingleSubmit</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adapt-contrib-assistedLearning</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapt-contrib-avatar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>adapt-contrib-branching</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>adapt-contrib-brightcovePlayer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>adapt-contrib-carbonMenu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>adapt-contrib-certificate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>adapt-contrib-chatbot</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes (Yarn)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/cli/LP Github repos.xlsx
+++ b/cli/LP Github repos.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,6 +1116,216 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xAI-Console-UI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xAI-Inference-server</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xAI-Labelling-UI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes (NPM and Yarn)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>xapi-js-client</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Renovate and Dependabot</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>yum-api-qatests</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cli/LP Github repos.xlsx
+++ b/cli/LP Github repos.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
